--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value475.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value475.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9989476110392417</v>
+        <v>1.003124237060547</v>
       </c>
       <c r="B1">
-        <v>1.663090998848929</v>
+        <v>-1</v>
       </c>
       <c r="C1">
-        <v>4.140813559578557</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.932435682046352</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>1.041554710655119</v>
+        <v>1.101457715034485</v>
       </c>
     </row>
   </sheetData>
